--- a/2022/Realme/JUNE/29.06.2022/realme Bank Statement June-20222.xlsx
+++ b/2022/Realme/JUNE/29.06.2022/realme Bank Statement June-20222.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>N=Zilani Mobile</t>
+  </si>
+  <si>
+    <t>30.06.2022</t>
   </si>
 </sst>
 </file>
@@ -2393,6 +2396,63 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2453,6 +2513,21 @@
     <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="37" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2504,21 +2579,6 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2563,63 +2623,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3173,7 +3176,7 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3191,29 +3194,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="206"/>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
+      <c r="A1" s="225"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
     </row>
     <row r="2" spans="1:11" ht="20.25">
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1">
       <c r="A3" s="15"/>
-      <c r="B3" s="205" t="s">
+      <c r="B3" s="224" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="224"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="B4" s="16" t="s">
@@ -3807,12 +3810,18 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="15"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="22"/>
+      <c r="B33" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="D33" s="22">
+        <v>600000</v>
+      </c>
       <c r="E33" s="21">
         <f t="shared" si="0"/>
-        <v>1361807</v>
+        <v>1761807</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -3827,7 +3836,7 @@
       <c r="D34" s="19"/>
       <c r="E34" s="21">
         <f t="shared" si="0"/>
-        <v>1361807</v>
+        <v>1761807</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -3842,7 +3851,7 @@
       <c r="D35" s="19"/>
       <c r="E35" s="21">
         <f t="shared" si="0"/>
-        <v>1361807</v>
+        <v>1761807</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -3857,7 +3866,7 @@
       <c r="D36" s="19"/>
       <c r="E36" s="21">
         <f t="shared" si="0"/>
-        <v>1361807</v>
+        <v>1761807</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -3872,7 +3881,7 @@
       <c r="D37" s="19"/>
       <c r="E37" s="21">
         <f t="shared" si="0"/>
-        <v>1361807</v>
+        <v>1761807</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -3887,7 +3896,7 @@
       <c r="D38" s="19"/>
       <c r="E38" s="21">
         <f t="shared" si="0"/>
-        <v>1361807</v>
+        <v>1761807</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -3902,7 +3911,7 @@
       <c r="D39" s="19"/>
       <c r="E39" s="21">
         <f t="shared" si="0"/>
-        <v>1361807</v>
+        <v>1761807</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -3917,7 +3926,7 @@
       <c r="D40" s="19"/>
       <c r="E40" s="21">
         <f>E39+C40-D40</f>
-        <v>1361807</v>
+        <v>1761807</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -3932,7 +3941,7 @@
       <c r="D41" s="19"/>
       <c r="E41" s="21">
         <f t="shared" si="0"/>
-        <v>1361807</v>
+        <v>1761807</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="15"/>
@@ -3947,7 +3956,7 @@
       <c r="D42" s="19"/>
       <c r="E42" s="21">
         <f t="shared" si="0"/>
-        <v>1361807</v>
+        <v>1761807</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="15"/>
@@ -3962,7 +3971,7 @@
       <c r="D43" s="19"/>
       <c r="E43" s="21">
         <f t="shared" si="0"/>
-        <v>1361807</v>
+        <v>1761807</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="15"/>
@@ -3974,7 +3983,7 @@
       <c r="D44" s="19"/>
       <c r="E44" s="21">
         <f t="shared" si="0"/>
-        <v>1361807</v>
+        <v>1761807</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="15"/>
@@ -3986,7 +3995,7 @@
       <c r="D45" s="19"/>
       <c r="E45" s="21">
         <f t="shared" si="0"/>
-        <v>1361807</v>
+        <v>1761807</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="15"/>
@@ -3998,7 +4007,7 @@
       <c r="D46" s="19"/>
       <c r="E46" s="21">
         <f t="shared" si="0"/>
-        <v>1361807</v>
+        <v>1761807</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="15"/>
@@ -4010,7 +4019,7 @@
       <c r="D47" s="19"/>
       <c r="E47" s="21">
         <f t="shared" si="0"/>
-        <v>1361807</v>
+        <v>1761807</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="15"/>
@@ -4022,7 +4031,7 @@
       <c r="D48" s="19"/>
       <c r="E48" s="21">
         <f t="shared" si="0"/>
-        <v>1361807</v>
+        <v>1761807</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>11</v>
@@ -4035,7 +4044,7 @@
       <c r="D49" s="19"/>
       <c r="E49" s="21">
         <f t="shared" si="0"/>
-        <v>1361807</v>
+        <v>1761807</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="15"/>
@@ -4046,7 +4055,7 @@
       <c r="D50" s="19"/>
       <c r="E50" s="21">
         <f t="shared" si="0"/>
-        <v>1361807</v>
+        <v>1761807</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="15"/>
@@ -4057,7 +4066,7 @@
       <c r="D51" s="19"/>
       <c r="E51" s="21">
         <f t="shared" si="0"/>
-        <v>1361807</v>
+        <v>1761807</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="15"/>
@@ -4066,11 +4075,11 @@
       <c r="B52" s="25"/>
       <c r="C52" s="21">
         <f>SUM(C6:C51)</f>
-        <v>10662807</v>
+        <v>11662807</v>
       </c>
       <c r="D52" s="21">
         <f>SUM(D6:D51)</f>
-        <v>9301000</v>
+        <v>9901000</v>
       </c>
       <c r="E52" s="21"/>
       <c r="F52" s="1"/>
@@ -4135,67 +4144,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="226" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="207"/>
-      <c r="O1" s="207"/>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="207"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="226"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="226"/>
+      <c r="P1" s="226"/>
+      <c r="Q1" s="226"/>
     </row>
     <row r="2" spans="1:24" s="59" customFormat="1" ht="18">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="227" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="227"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="227"/>
+      <c r="K2" s="227"/>
+      <c r="L2" s="227"/>
+      <c r="M2" s="227"/>
+      <c r="N2" s="227"/>
+      <c r="O2" s="227"/>
+      <c r="P2" s="227"/>
+      <c r="Q2" s="227"/>
     </row>
     <row r="3" spans="1:24" s="60" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="209" t="s">
+      <c r="A3" s="228" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="210"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="210"/>
-      <c r="J3" s="210"/>
-      <c r="K3" s="210"/>
-      <c r="L3" s="210"/>
-      <c r="M3" s="210"/>
-      <c r="N3" s="210"/>
-      <c r="O3" s="210"/>
-      <c r="P3" s="210"/>
-      <c r="Q3" s="211"/>
+      <c r="B3" s="229"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="229"/>
+      <c r="O3" s="229"/>
+      <c r="P3" s="229"/>
+      <c r="Q3" s="230"/>
       <c r="S3" s="42"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4204,52 +4213,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="62" customFormat="1">
-      <c r="A4" s="212" t="s">
+      <c r="A4" s="231" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="214" t="s">
+      <c r="B4" s="233" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="216" t="s">
+      <c r="C4" s="235" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="216" t="s">
+      <c r="D4" s="235" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="216" t="s">
+      <c r="E4" s="235" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="216" t="s">
+      <c r="F4" s="235" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="216" t="s">
+      <c r="G4" s="235" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="216" t="s">
+      <c r="H4" s="235" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="216" t="s">
+      <c r="I4" s="235" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="216" t="s">
+      <c r="J4" s="235" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="216" t="s">
+      <c r="K4" s="235" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="216" t="s">
+      <c r="L4" s="235" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="216" t="s">
+      <c r="M4" s="235" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="222" t="s">
+      <c r="N4" s="241" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="220" t="s">
+      <c r="O4" s="239" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="218" t="s">
+      <c r="P4" s="237" t="s">
         <v>30</v>
       </c>
       <c r="Q4" s="61" t="s">
@@ -4262,22 +4271,22 @@
       <c r="W4" s="64"/>
     </row>
     <row r="5" spans="1:24" s="62" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="213"/>
-      <c r="B5" s="215"/>
-      <c r="C5" s="217"/>
-      <c r="D5" s="217"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="217"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="217"/>
-      <c r="J5" s="217"/>
-      <c r="K5" s="217"/>
-      <c r="L5" s="217"/>
-      <c r="M5" s="217"/>
-      <c r="N5" s="223"/>
-      <c r="O5" s="221"/>
-      <c r="P5" s="219"/>
+      <c r="A5" s="232"/>
+      <c r="B5" s="234"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="236"/>
+      <c r="G5" s="236"/>
+      <c r="H5" s="236"/>
+      <c r="I5" s="236"/>
+      <c r="J5" s="236"/>
+      <c r="K5" s="236"/>
+      <c r="L5" s="236"/>
+      <c r="M5" s="236"/>
+      <c r="N5" s="242"/>
+      <c r="O5" s="240"/>
+      <c r="P5" s="238"/>
       <c r="Q5" s="66" t="s">
         <v>31</v>
       </c>
@@ -7450,14 +7459,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="19.5">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="252" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="230"/>
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="254"/>
       <c r="H1" s="38"/>
       <c r="I1" s="113"/>
       <c r="J1" s="113"/>
@@ -7510,14 +7519,14 @@
       <c r="BE1" s="113"/>
     </row>
     <row r="2" spans="1:57" ht="15" customHeight="1">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="255" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="233"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="257"/>
       <c r="H2" s="38"/>
       <c r="I2" s="113"/>
       <c r="J2" s="113"/>
@@ -7570,14 +7579,14 @@
       <c r="BE2" s="113"/>
     </row>
     <row r="3" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="258" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="236"/>
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="260"/>
       <c r="H3" s="38"/>
       <c r="I3" s="113"/>
       <c r="J3" s="113"/>
@@ -9568,13 +9577,13 @@
       <c r="BE34" s="113"/>
     </row>
     <row r="35" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A35" s="238" t="s">
+      <c r="A35" s="262" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="239"/>
-      <c r="C35" s="239"/>
-      <c r="D35" s="239"/>
-      <c r="E35" s="240"/>
+      <c r="B35" s="263"/>
+      <c r="C35" s="263"/>
+      <c r="D35" s="263"/>
+      <c r="E35" s="264"/>
       <c r="F35" s="41"/>
       <c r="G35" s="50"/>
       <c r="H35" s="38"/>
@@ -9629,12 +9638,12 @@
       <c r="BE35" s="113"/>
     </row>
     <row r="36" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A36" s="226" t="s">
+      <c r="A36" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="237"/>
-      <c r="C36" s="237"/>
-      <c r="D36" s="227"/>
+      <c r="B36" s="261"/>
+      <c r="C36" s="261"/>
+      <c r="D36" s="251"/>
       <c r="E36" s="131">
         <f>F33-C119</f>
         <v>0</v>
@@ -9772,12 +9781,12 @@
       </c>
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
-      <c r="G38" s="241" t="s">
+      <c r="G38" s="243" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="241"/>
-      <c r="I38" s="241"/>
-      <c r="J38" s="241"/>
+      <c r="H38" s="243"/>
+      <c r="I38" s="243"/>
+      <c r="J38" s="243"/>
       <c r="K38" s="113"/>
       <c r="L38" s="113"/>
       <c r="M38" s="113"/>
@@ -9917,11 +9926,11 @@
       </c>
       <c r="E40" s="41"/>
       <c r="F40" s="42"/>
-      <c r="G40" s="243" t="s">
+      <c r="G40" s="245" t="s">
         <v>97</v>
       </c>
-      <c r="H40" s="243"/>
-      <c r="I40" s="243"/>
+      <c r="H40" s="245"/>
+      <c r="I40" s="245"/>
       <c r="J40" s="143">
         <v>3000</v>
       </c>
@@ -9988,11 +9997,11 @@
       </c>
       <c r="E41" s="52"/>
       <c r="F41" s="42"/>
-      <c r="G41" s="244" t="s">
+      <c r="G41" s="246" t="s">
         <v>96</v>
       </c>
-      <c r="H41" s="244"/>
-      <c r="I41" s="244"/>
+      <c r="H41" s="246"/>
+      <c r="I41" s="246"/>
       <c r="J41" s="143">
         <v>1800</v>
       </c>
@@ -10056,11 +10065,11 @@
         <v>91</v>
       </c>
       <c r="F42" s="42"/>
-      <c r="G42" s="245" t="s">
+      <c r="G42" s="247" t="s">
         <v>98</v>
       </c>
-      <c r="H42" s="245"/>
-      <c r="I42" s="245"/>
+      <c r="H42" s="247"/>
+      <c r="I42" s="247"/>
       <c r="J42" s="143">
         <v>1500</v>
       </c>
@@ -10125,11 +10134,11 @@
       </c>
       <c r="E43" s="42"/>
       <c r="F43" s="113"/>
-      <c r="G43" s="242" t="s">
+      <c r="G43" s="244" t="s">
         <v>95</v>
       </c>
-      <c r="H43" s="242"/>
-      <c r="I43" s="242"/>
+      <c r="H43" s="244"/>
+      <c r="I43" s="244"/>
       <c r="J43" s="198">
         <f>SUM(J39:J41)</f>
         <v>17190</v>
@@ -13971,10 +13980,10 @@
       <c r="AX116" s="113"/>
     </row>
     <row r="117" spans="1:50" ht="15.75" thickBot="1">
-      <c r="A117" s="224" t="s">
+      <c r="A117" s="248" t="s">
         <v>20</v>
       </c>
-      <c r="B117" s="225"/>
+      <c r="B117" s="249"/>
       <c r="C117" s="163">
         <f>SUM(C37:C116)</f>
         <v>707510</v>
@@ -14078,10 +14087,10 @@
       <c r="AX118" s="113"/>
     </row>
     <row r="119" spans="1:50" ht="13.5" thickBot="1">
-      <c r="A119" s="226" t="s">
+      <c r="A119" s="250" t="s">
         <v>21</v>
       </c>
-      <c r="B119" s="227"/>
+      <c r="B119" s="251"/>
       <c r="C119" s="130">
         <f>C117</f>
         <v>707510</v>
@@ -14829,11 +14838,6 @@
     <sortCondition ref="A37"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="A119:B119"/>
     <mergeCell ref="A1:F1"/>
@@ -14841,6 +14845,11 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A35:E35"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -14857,7 +14866,7 @@
   <dimension ref="A1:AB216"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -14882,35 +14891,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="26.25">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="265" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="248"/>
+      <c r="B1" s="266"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="267"/>
       <c r="F1" s="139"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:28" ht="21.75">
-      <c r="A2" s="255" t="s">
+      <c r="A2" s="274" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="257"/>
+      <c r="B2" s="275"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="276"/>
       <c r="F2" s="139"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:28" ht="24" thickBot="1">
-      <c r="A3" s="249" t="s">
+      <c r="A3" s="268" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="250"/>
-      <c r="C3" s="250"/>
-      <c r="D3" s="250"/>
-      <c r="E3" s="251"/>
+      <c r="B3" s="269"/>
+      <c r="C3" s="269"/>
+      <c r="D3" s="269"/>
+      <c r="E3" s="270"/>
       <c r="F3" s="139"/>
       <c r="G3" s="29"/>
       <c r="H3" s="1"/>
@@ -14936,13 +14945,13 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" ht="24" thickBot="1">
-      <c r="A4" s="258" t="s">
+      <c r="A4" s="277" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="259"/>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="260"/>
+      <c r="B4" s="278"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="279"/>
       <c r="F4" s="139"/>
       <c r="G4" s="29"/>
       <c r="I4" s="1"/>
@@ -15014,7 +15023,7 @@
         <v>47</v>
       </c>
       <c r="E6" s="121">
-        <v>1361807</v>
+        <v>1761807</v>
       </c>
       <c r="F6" s="139"/>
       <c r="G6" s="27"/>
@@ -15254,7 +15263,7 @@
       <c r="F13" s="139"/>
       <c r="G13" s="107">
         <f>B18-E18</f>
-        <v>0</v>
+        <v>-400000</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -15390,7 +15399,7 @@
       </c>
       <c r="E18" s="121">
         <f>SUM(E5:E17)</f>
-        <v>8001936.5999999996</v>
+        <v>8401936.5999999996</v>
       </c>
       <c r="F18" s="139"/>
       <c r="G18" s="124"/>
@@ -15444,13 +15453,13 @@
       <c r="AB19" s="1"/>
     </row>
     <row r="20" spans="1:28" ht="23.25" thickBot="1">
-      <c r="A20" s="252" t="s">
+      <c r="A20" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="253"/>
-      <c r="C20" s="253"/>
-      <c r="D20" s="253"/>
-      <c r="E20" s="254"/>
+      <c r="B20" s="272"/>
+      <c r="C20" s="272"/>
+      <c r="D20" s="272"/>
+      <c r="E20" s="273"/>
       <c r="F20" s="139"/>
       <c r="G20" s="124"/>
       <c r="H20" s="1"/>
@@ -15476,17 +15485,17 @@
       <c r="AB20" s="1"/>
     </row>
     <row r="21" spans="1:28" ht="23.25">
-      <c r="A21" s="261" t="s">
+      <c r="A21" s="204" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="262">
+      <c r="B21" s="205">
         <v>34000</v>
       </c>
-      <c r="C21" s="263"/>
-      <c r="D21" s="263" t="s">
+      <c r="C21" s="206"/>
+      <c r="D21" s="206" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="264">
+      <c r="E21" s="207">
         <v>156470</v>
       </c>
       <c r="F21" s="139"/>
@@ -15511,17 +15520,17 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:28" ht="23.25">
-      <c r="A22" s="265" t="s">
+      <c r="A22" s="208" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="266">
+      <c r="B22" s="209">
         <v>50000</v>
       </c>
-      <c r="C22" s="267"/>
-      <c r="D22" s="268" t="s">
+      <c r="C22" s="210"/>
+      <c r="D22" s="211" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="269">
+      <c r="E22" s="212">
         <v>105110</v>
       </c>
       <c r="F22" s="139"/>
@@ -15545,17 +15554,17 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:28" s="1" customFormat="1" ht="23.25">
-      <c r="A23" s="270" t="s">
+      <c r="A23" s="213" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="271">
+      <c r="B23" s="214">
         <v>4460</v>
       </c>
-      <c r="C23" s="272"/>
-      <c r="D23" s="273" t="s">
+      <c r="C23" s="215"/>
+      <c r="D23" s="216" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="274">
+      <c r="E23" s="217">
         <v>31990</v>
       </c>
       <c r="F23" s="124"/>
@@ -15563,17 +15572,17 @@
       <c r="H23" s="171"/>
     </row>
     <row r="24" spans="1:28" s="1" customFormat="1" ht="23.25">
-      <c r="A24" s="265" t="s">
+      <c r="A24" s="208" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="266">
+      <c r="B24" s="209">
         <v>60000</v>
       </c>
-      <c r="C24" s="267"/>
-      <c r="D24" s="268" t="s">
+      <c r="C24" s="210"/>
+      <c r="D24" s="211" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="269">
+      <c r="E24" s="212">
         <v>31990</v>
       </c>
       <c r="F24" s="124"/>
@@ -15581,17 +15590,17 @@
       <c r="H24" s="171"/>
     </row>
     <row r="25" spans="1:28" s="1" customFormat="1" ht="24" thickBot="1">
-      <c r="A25" s="275" t="s">
+      <c r="A25" s="218" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="276">
+      <c r="B25" s="219">
         <v>200000</v>
       </c>
-      <c r="C25" s="277"/>
-      <c r="D25" s="278" t="s">
+      <c r="C25" s="220"/>
+      <c r="D25" s="221" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="279">
+      <c r="E25" s="222">
         <v>31990</v>
       </c>
       <c r="F25" s="15"/>
